--- a/code/validator/www/data.xlsx
+++ b/code/validator/www/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahsherrod/Documents/MooreResearchRepository/One4All/code/validator/www/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\MooreInstitute\Projects\PeoplesLab\Code\One4All\code\validator\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900D0CA8-A7D0-B946-9138-17886D3F6C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B33D49-818D-4ECC-A867-F39E6E2D025E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28320" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="methodology" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="151">
   <si>
     <t>SamplingDevice</t>
   </si>
@@ -355,13 +355,133 @@
   </si>
   <si>
     <t>MIPPR_IDC_LFB_22Feb24_GL_37_rt.rds</t>
+  </si>
+  <si>
+    <t>GL_2</t>
+  </si>
+  <si>
+    <t>GL_3</t>
+  </si>
+  <si>
+    <t>GL_4</t>
+  </si>
+  <si>
+    <t>GL_5</t>
+  </si>
+  <si>
+    <t>GL_6</t>
+  </si>
+  <si>
+    <t>GL_7</t>
+  </si>
+  <si>
+    <t>GL_8</t>
+  </si>
+  <si>
+    <t>GL_9</t>
+  </si>
+  <si>
+    <t>GL_10</t>
+  </si>
+  <si>
+    <t>GL_11</t>
+  </si>
+  <si>
+    <t>GL_12</t>
+  </si>
+  <si>
+    <t>GL_13</t>
+  </si>
+  <si>
+    <t>GL_14</t>
+  </si>
+  <si>
+    <t>GL_15</t>
+  </si>
+  <si>
+    <t>GL_16</t>
+  </si>
+  <si>
+    <t>GL_17</t>
+  </si>
+  <si>
+    <t>GL_18</t>
+  </si>
+  <si>
+    <t>GL_19</t>
+  </si>
+  <si>
+    <t>GL_20</t>
+  </si>
+  <si>
+    <t>GL_21</t>
+  </si>
+  <si>
+    <t>GL_22</t>
+  </si>
+  <si>
+    <t>GL_23</t>
+  </si>
+  <si>
+    <t>GL_24</t>
+  </si>
+  <si>
+    <t>GL_25</t>
+  </si>
+  <si>
+    <t>GL_26</t>
+  </si>
+  <si>
+    <t>GL_27</t>
+  </si>
+  <si>
+    <t>GL_28</t>
+  </si>
+  <si>
+    <t>GL_29</t>
+  </si>
+  <si>
+    <t>GL_30</t>
+  </si>
+  <si>
+    <t>GL_31</t>
+  </si>
+  <si>
+    <t>GL_32</t>
+  </si>
+  <si>
+    <t>GL_33</t>
+  </si>
+  <si>
+    <t>GL_34</t>
+  </si>
+  <si>
+    <t>GL_35</t>
+  </si>
+  <si>
+    <t>GL_36</t>
+  </si>
+  <si>
+    <t>GL_37</t>
+  </si>
+  <si>
+    <t>GL_38</t>
+  </si>
+  <si>
+    <t>GL_39</t>
+  </si>
+  <si>
+    <t>GL_40</t>
+  </si>
+  <si>
+    <t>GL_41</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -382,6 +502,17 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -407,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -419,6 +550,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1042,17 +1174,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1123,7 +1255,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1194,7 +1326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -1265,7 +1397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -1340,7 +1472,7 @@
   <conditionalFormatting sqref="A2:A4">
     <cfRule type="duplicateValues" dxfId="26" priority="27"/>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="textLength" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="S2:S4 O2:O4 I2:M4 E2:E4 A2:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
@@ -1356,57 +1488,12 @@
       <formula1>1</formula1>
       <formula2>1000</formula2>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4 R2:R4 P2:P4 N2:N4 F2:H4" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000F000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000010000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000011000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000012000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>N2:N4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000013000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>P2:P4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000014000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>R2:R4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1416,17 +1503,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" style="3" customWidth="1"/>
     <col min="8" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>55</v>
       </c>
@@ -1470,7 +1557,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>70</v>
       </c>
@@ -1514,7 +1601,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -1558,7 +1645,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>72</v>
       </c>
@@ -1602,7 +1689,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>73</v>
       </c>
@@ -1646,7 +1733,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -1690,7 +1777,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>75</v>
       </c>
@@ -1734,7 +1821,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>76</v>
       </c>
@@ -1778,7 +1865,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>77</v>
       </c>
@@ -1822,7 +1909,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>78</v>
       </c>
@@ -1866,7 +1953,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>79</v>
       </c>
@@ -1911,7 +1998,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="textLength" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="G2:G11 B2:E11 M2:N11 J2:J11" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
@@ -1923,46 +2010,31 @@
       <formula1>1</formula1>
       <formula2>1000000</formula2>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:L11" xr:uid="{00000000-0002-0000-0400-00000E000000}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-00000E000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>K2:K11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-00000F000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>L2:L11</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:T202"/>
+  <dimension ref="A1:T242"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E200" sqref="E200"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D236" sqref="D236"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -2024,7 +2096,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>143</v>
       </c>
@@ -2077,7 +2149,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>166</v>
       </c>
@@ -2130,7 +2202,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>186</v>
       </c>
@@ -2183,7 +2255,7 @@
         <v>4325</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>140</v>
       </c>
@@ -2236,7 +2308,7 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>236</v>
       </c>
@@ -2289,7 +2361,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>71</v>
       </c>
@@ -2342,7 +2414,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>238</v>
       </c>
@@ -2395,7 +2467,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>228</v>
       </c>
@@ -2448,7 +2520,7 @@
         <v>4850</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>210</v>
       </c>
@@ -2501,7 +2573,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>239</v>
       </c>
@@ -2554,7 +2626,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>123</v>
       </c>
@@ -2607,7 +2679,7 @@
         <v>5475</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>125</v>
       </c>
@@ -2660,7 +2732,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>189</v>
       </c>
@@ -2713,7 +2785,7 @@
         <v>6075</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>78</v>
       </c>
@@ -2766,7 +2838,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>119</v>
       </c>
@@ -2819,7 +2891,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>208</v>
       </c>
@@ -2872,7 +2944,7 @@
         <v>6425</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>230</v>
       </c>
@@ -2925,7 +2997,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>259</v>
       </c>
@@ -2978,7 +3050,7 @@
         <v>7075</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>122</v>
       </c>
@@ -3031,7 +3103,7 @@
         <v>7150</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>131</v>
       </c>
@@ -3084,7 +3156,7 @@
         <v>7825</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>169</v>
       </c>
@@ -3137,7 +3209,7 @@
         <v>8150</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>223</v>
       </c>
@@ -3190,7 +3262,7 @@
         <v>8725</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>146</v>
       </c>
@@ -3243,7 +3315,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>254</v>
       </c>
@@ -3296,7 +3368,7 @@
         <v>10250</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>159</v>
       </c>
@@ -3349,7 +3421,7 @@
         <v>10375</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>56</v>
       </c>
@@ -3402,7 +3474,7 @@
         <v>10825</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -3455,7 +3527,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>103</v>
       </c>
@@ -3508,7 +3580,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>108</v>
       </c>
@@ -3561,7 +3633,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3614,7 +3686,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>25</v>
       </c>
@@ -3667,7 +3739,7 @@
         <v>5675</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>54</v>
       </c>
@@ -3720,7 +3792,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>62</v>
       </c>
@@ -3773,7 +3845,7 @@
         <v>7350</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>599</v>
       </c>
@@ -3826,7 +3898,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>474</v>
       </c>
@@ -3879,7 +3951,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>542</v>
       </c>
@@ -3932,7 +4004,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>284</v>
       </c>
@@ -3985,7 +4057,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>611</v>
       </c>
@@ -4038,7 +4110,7 @@
         <v>4175</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>614</v>
       </c>
@@ -4091,7 +4163,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>387</v>
       </c>
@@ -4144,7 +4216,7 @@
         <v>4425</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>473</v>
       </c>
@@ -4197,7 +4269,7 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>573</v>
       </c>
@@ -4250,7 +4322,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>228</v>
       </c>
@@ -4303,7 +4375,7 @@
         <v>5675</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>118</v>
       </c>
@@ -4356,7 +4428,7 @@
         <v>5950</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>609</v>
       </c>
@@ -4409,7 +4481,7 @@
         <v>6025</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>213</v>
       </c>
@@ -4462,7 +4534,7 @@
         <v>6275</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>333</v>
       </c>
@@ -4515,7 +4587,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>111</v>
       </c>
@@ -4568,7 +4640,7 @@
         <v>7150</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>603</v>
       </c>
@@ -4621,7 +4693,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>100</v>
       </c>
@@ -4674,7 +4746,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>368</v>
       </c>
@@ -4727,7 +4799,7 @@
         <v>8650</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>585</v>
       </c>
@@ -4780,7 +4852,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>216</v>
       </c>
@@ -4833,7 +4905,7 @@
         <v>9575</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>600</v>
       </c>
@@ -4886,7 +4958,7 @@
         <v>11250</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>41</v>
       </c>
@@ -4939,7 +5011,7 @@
         <v>11575</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>484</v>
       </c>
@@ -4992,7 +5064,7 @@
         <v>11775</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>606</v>
       </c>
@@ -5045,7 +5117,7 @@
         <v>11825</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>370</v>
       </c>
@@ -5098,7 +5170,7 @@
         <v>11975</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>252</v>
       </c>
@@ -5151,7 +5223,7 @@
         <v>12625</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>35</v>
       </c>
@@ -5204,7 +5276,7 @@
         <v>14025</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>123</v>
       </c>
@@ -5257,7 +5329,7 @@
         <v>14075</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>94</v>
       </c>
@@ -5310,7 +5382,7 @@
         <v>14150</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>142</v>
       </c>
@@ -5363,7 +5435,7 @@
         <v>14175</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>128</v>
       </c>
@@ -5416,7 +5488,7 @@
         <v>4275</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>336</v>
       </c>
@@ -5469,7 +5541,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>236</v>
       </c>
@@ -5522,7 +5594,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>479</v>
       </c>
@@ -5575,7 +5647,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>538</v>
       </c>
@@ -5628,7 +5700,7 @@
         <v>6675</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>580</v>
       </c>
@@ -5681,7 +5753,7 @@
         <v>6775</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>40</v>
       </c>
@@ -5734,7 +5806,7 @@
         <v>7450</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>169</v>
       </c>
@@ -5787,7 +5859,7 @@
         <v>8025</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>373</v>
       </c>
@@ -5840,7 +5912,7 @@
         <v>8350</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>28</v>
       </c>
@@ -5893,7 +5965,7 @@
         <v>8350</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>244</v>
       </c>
@@ -5946,7 +6018,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>335</v>
       </c>
@@ -5999,7 +6071,7 @@
         <v>9050</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>439</v>
       </c>
@@ -6052,7 +6124,7 @@
         <v>9100</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>351</v>
       </c>
@@ -6105,7 +6177,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>628</v>
       </c>
@@ -6158,7 +6230,7 @@
         <v>9375</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>22</v>
       </c>
@@ -6211,7 +6283,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>277</v>
       </c>
@@ -6264,7 +6336,7 @@
         <v>9725</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>93</v>
       </c>
@@ -6317,7 +6389,7 @@
         <v>9875</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>461</v>
       </c>
@@ -6370,7 +6442,7 @@
         <v>10100</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>132</v>
       </c>
@@ -6423,7 +6495,7 @@
         <v>10450</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>27</v>
       </c>
@@ -6476,7 +6548,7 @@
         <v>10475</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>394</v>
       </c>
@@ -6529,7 +6601,7 @@
         <v>10750</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>314</v>
       </c>
@@ -6582,7 +6654,7 @@
         <v>10750</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>261</v>
       </c>
@@ -6635,7 +6707,7 @@
         <v>10825</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>177</v>
       </c>
@@ -6688,7 +6760,7 @@
         <v>10900</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>438</v>
       </c>
@@ -6741,7 +6813,7 @@
         <v>11375</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>379</v>
       </c>
@@ -6794,7 +6866,7 @@
         <v>11375</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>180</v>
       </c>
@@ -6844,7 +6916,7 @@
         <v>11700</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>274</v>
       </c>
@@ -6897,7 +6969,7 @@
         <v>11925</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>426</v>
       </c>
@@ -6950,7 +7022,7 @@
         <v>11950</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>539</v>
       </c>
@@ -7003,7 +7075,7 @@
         <v>12075</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1</v>
       </c>
@@ -7056,7 +7128,7 @@
         <v>12075</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>192</v>
       </c>
@@ -7109,7 +7181,7 @@
         <v>12375</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>320</v>
       </c>
@@ -7162,7 +7234,7 @@
         <v>12825</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>556</v>
       </c>
@@ -7215,7 +7287,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>546</v>
       </c>
@@ -7268,7 +7340,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>494</v>
       </c>
@@ -7321,7 +7393,7 @@
         <v>13300</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>574</v>
       </c>
@@ -7374,7 +7446,7 @@
         <v>13325</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>419</v>
       </c>
@@ -7427,7 +7499,7 @@
         <v>13850</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>473</v>
       </c>
@@ -7480,7 +7552,7 @@
         <v>14025</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>549</v>
       </c>
@@ -7533,7 +7605,7 @@
         <v>14150</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>570</v>
       </c>
@@ -7586,7 +7658,7 @@
         <v>14200</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>610</v>
       </c>
@@ -7639,7 +7711,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>528</v>
       </c>
@@ -7692,7 +7764,7 @@
         <v>15125</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>630</v>
       </c>
@@ -7745,7 +7817,7 @@
         <v>15275</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>123</v>
       </c>
@@ -7798,7 +7870,7 @@
         <v>3850</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>341</v>
       </c>
@@ -7851,7 +7923,7 @@
         <v>5125</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>342</v>
       </c>
@@ -7904,7 +7976,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>353</v>
       </c>
@@ -7957,7 +8029,7 @@
         <v>6175</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>427</v>
       </c>
@@ -8010,7 +8082,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>332</v>
       </c>
@@ -8063,7 +8135,7 @@
         <v>6975</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>520</v>
       </c>
@@ -8116,7 +8188,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>477</v>
       </c>
@@ -8169,7 +8241,7 @@
         <v>7225</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>147</v>
       </c>
@@ -8222,7 +8294,7 @@
         <v>7225</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>243</v>
       </c>
@@ -8275,7 +8347,7 @@
         <v>7425</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>239</v>
       </c>
@@ -8328,7 +8400,7 @@
         <v>7425</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>228</v>
       </c>
@@ -8381,7 +8453,7 @@
         <v>7725</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>449</v>
       </c>
@@ -8434,7 +8506,7 @@
         <v>7925</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>219</v>
       </c>
@@ -8487,7 +8559,7 @@
         <v>7950</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>360</v>
       </c>
@@ -8540,7 +8612,7 @@
         <v>8025</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>401</v>
       </c>
@@ -8593,7 +8665,7 @@
         <v>8550</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>203</v>
       </c>
@@ -8646,7 +8718,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>34</v>
       </c>
@@ -8699,7 +8771,7 @@
         <v>9325</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>560</v>
       </c>
@@ -8752,7 +8824,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>567</v>
       </c>
@@ -8805,7 +8877,7 @@
         <v>9725</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>426</v>
       </c>
@@ -8858,7 +8930,7 @@
         <v>10075</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>457</v>
       </c>
@@ -8911,7 +8983,7 @@
         <v>10450</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>564</v>
       </c>
@@ -8964,7 +9036,7 @@
         <v>10625</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>408</v>
       </c>
@@ -9017,7 +9089,7 @@
         <v>10700</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>459</v>
       </c>
@@ -9070,7 +9142,7 @@
         <v>10750</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>487</v>
       </c>
@@ -9123,7 +9195,7 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>584</v>
       </c>
@@ -9176,7 +9248,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>162</v>
       </c>
@@ -9229,7 +9301,7 @@
         <v>14475</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>305</v>
       </c>
@@ -9282,7 +9354,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>301</v>
       </c>
@@ -9335,7 +9407,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>274</v>
       </c>
@@ -9388,7 +9460,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>122</v>
       </c>
@@ -9441,7 +9513,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>79</v>
       </c>
@@ -9494,7 +9566,7 @@
         <v>4525</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>76</v>
       </c>
@@ -9547,7 +9619,7 @@
         <v>4775</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>278</v>
       </c>
@@ -9600,7 +9672,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>46</v>
       </c>
@@ -9653,7 +9725,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>346</v>
       </c>
@@ -9706,7 +9778,7 @@
         <v>5825</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>378</v>
       </c>
@@ -9759,7 +9831,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>20</v>
       </c>
@@ -9812,7 +9884,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>377</v>
       </c>
@@ -9865,7 +9937,7 @@
         <v>7775</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>21</v>
       </c>
@@ -9918,7 +9990,7 @@
         <v>8625</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>241</v>
       </c>
@@ -9971,7 +10043,7 @@
         <v>9125</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>304</v>
       </c>
@@ -10024,7 +10096,7 @@
         <v>9375</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>293</v>
       </c>
@@ -10077,7 +10149,7 @@
         <v>9475</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>28</v>
       </c>
@@ -10130,7 +10202,7 @@
         <v>10100</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>49</v>
       </c>
@@ -10183,7 +10255,7 @@
         <v>11125</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>262</v>
       </c>
@@ -10236,7 +10308,7 @@
         <v>11725</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>11</v>
       </c>
@@ -10289,7 +10361,7 @@
         <v>11825</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>81</v>
       </c>
@@ -10342,7 +10414,7 @@
         <v>12375</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>118</v>
       </c>
@@ -10395,7 +10467,7 @@
         <v>12975</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>96</v>
       </c>
@@ -10448,7 +10520,7 @@
         <v>12975</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>156</v>
       </c>
@@ -10501,7 +10573,7 @@
         <v>13675</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>237</v>
       </c>
@@ -10554,7 +10626,7 @@
         <v>14625</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>13</v>
       </c>
@@ -10607,7 +10679,7 @@
         <v>7225</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>18</v>
       </c>
@@ -10660,7 +10732,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2</v>
       </c>
@@ -10713,7 +10785,7 @@
         <v>7650</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>78</v>
       </c>
@@ -10766,7 +10838,7 @@
         <v>8225</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>39</v>
       </c>
@@ -10819,7 +10891,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>29</v>
       </c>
@@ -10872,7 +10944,7 @@
         <v>8775</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>23</v>
       </c>
@@ -10925,7 +10997,7 @@
         <v>8825</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>14</v>
       </c>
@@ -10978,7 +11050,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>4</v>
       </c>
@@ -11031,7 +11103,7 @@
         <v>9325</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>12</v>
       </c>
@@ -11084,7 +11156,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>28</v>
       </c>
@@ -11137,7 +11209,7 @@
         <v>9650</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>64</v>
       </c>
@@ -11190,7 +11262,7 @@
         <v>9750</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>6</v>
       </c>
@@ -11243,7 +11315,7 @@
         <v>9850</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>44</v>
       </c>
@@ -11296,7 +11368,7 @@
         <v>10050</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>55</v>
       </c>
@@ -11349,7 +11421,7 @@
         <v>10250</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>19</v>
       </c>
@@ -11402,7 +11474,7 @@
         <v>11350</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>52</v>
       </c>
@@ -11455,7 +11527,7 @@
         <v>11400</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>43</v>
       </c>
@@ -11508,7 +11580,7 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>7</v>
       </c>
@@ -11561,7 +11633,7 @@
         <v>11625</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>74</v>
       </c>
@@ -11614,7 +11686,7 @@
         <v>11825</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>58</v>
       </c>
@@ -11667,7 +11739,7 @@
         <v>11875</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>72</v>
       </c>
@@ -11720,7 +11792,7 @@
         <v>11900</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>65</v>
       </c>
@@ -11773,7 +11845,7 @@
         <v>12575</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>15</v>
       </c>
@@ -11826,7 +11898,7 @@
         <v>5350</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>46</v>
       </c>
@@ -11879,7 +11951,7 @@
         <v>6550</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>28</v>
       </c>
@@ -11932,7 +12004,7 @@
         <v>7725</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>3</v>
       </c>
@@ -11985,7 +12057,7 @@
         <v>7750</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>80</v>
       </c>
@@ -12038,7 +12110,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>49</v>
       </c>
@@ -12091,7 +12163,7 @@
         <v>7950</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>26</v>
       </c>
@@ -12144,7 +12216,7 @@
         <v>8025</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>48</v>
       </c>
@@ -12197,7 +12269,7 @@
         <v>8475</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>44</v>
       </c>
@@ -12250,7 +12322,7 @@
         <v>8825</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>52</v>
       </c>
@@ -12303,7 +12375,7 @@
         <v>10325</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>45</v>
       </c>
@@ -12356,7 +12428,7 @@
         <v>10700</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>35</v>
       </c>
@@ -12409,7 +12481,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>75</v>
       </c>
@@ -12462,7 +12534,7 @@
         <v>10950</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>47</v>
       </c>
@@ -12515,7 +12587,7 @@
         <v>12275</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>69</v>
       </c>
@@ -12568,7 +12640,7 @@
         <v>12950</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>62</v>
       </c>
@@ -12621,7 +12693,7 @@
         <v>14650</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>92</v>
       </c>
@@ -12665,27 +12737,954 @@
         <v>53</v>
       </c>
     </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>111</v>
+      </c>
+      <c r="B203" t="s">
+        <v>66</v>
+      </c>
+      <c r="C203" t="s">
+        <v>89</v>
+      </c>
+      <c r="D203" t="s">
+        <v>53</v>
+      </c>
+      <c r="E203" t="s">
+        <v>53</v>
+      </c>
+      <c r="G203" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I203" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L203" t="s">
+        <v>53</v>
+      </c>
+      <c r="M203" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>112</v>
+      </c>
+      <c r="B204" t="s">
+        <v>66</v>
+      </c>
+      <c r="C204" t="s">
+        <v>89</v>
+      </c>
+      <c r="D204" t="s">
+        <v>53</v>
+      </c>
+      <c r="E204" t="s">
+        <v>53</v>
+      </c>
+      <c r="G204" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I204" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>113</v>
+      </c>
+      <c r="B205" t="s">
+        <v>66</v>
+      </c>
+      <c r="C205" t="s">
+        <v>89</v>
+      </c>
+      <c r="D205" t="s">
+        <v>53</v>
+      </c>
+      <c r="E205" t="s">
+        <v>53</v>
+      </c>
+      <c r="G205" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I205" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>114</v>
+      </c>
+      <c r="B206" t="s">
+        <v>66</v>
+      </c>
+      <c r="C206" t="s">
+        <v>89</v>
+      </c>
+      <c r="D206" t="s">
+        <v>53</v>
+      </c>
+      <c r="E206" t="s">
+        <v>53</v>
+      </c>
+      <c r="G206" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I206" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>115</v>
+      </c>
+      <c r="B207" t="s">
+        <v>66</v>
+      </c>
+      <c r="C207" t="s">
+        <v>89</v>
+      </c>
+      <c r="D207" t="s">
+        <v>53</v>
+      </c>
+      <c r="E207" t="s">
+        <v>53</v>
+      </c>
+      <c r="G207" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I207" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>116</v>
+      </c>
+      <c r="B208" t="s">
+        <v>66</v>
+      </c>
+      <c r="C208" t="s">
+        <v>89</v>
+      </c>
+      <c r="D208" t="s">
+        <v>53</v>
+      </c>
+      <c r="E208" t="s">
+        <v>53</v>
+      </c>
+      <c r="G208" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I208" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>117</v>
+      </c>
+      <c r="B209" t="s">
+        <v>66</v>
+      </c>
+      <c r="C209" t="s">
+        <v>89</v>
+      </c>
+      <c r="D209" t="s">
+        <v>53</v>
+      </c>
+      <c r="E209" t="s">
+        <v>53</v>
+      </c>
+      <c r="G209" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I209" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>118</v>
+      </c>
+      <c r="B210" t="s">
+        <v>66</v>
+      </c>
+      <c r="C210" t="s">
+        <v>89</v>
+      </c>
+      <c r="D210" t="s">
+        <v>53</v>
+      </c>
+      <c r="E210" t="s">
+        <v>53</v>
+      </c>
+      <c r="G210" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I210" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>119</v>
+      </c>
+      <c r="B211" t="s">
+        <v>66</v>
+      </c>
+      <c r="C211" t="s">
+        <v>89</v>
+      </c>
+      <c r="D211" t="s">
+        <v>53</v>
+      </c>
+      <c r="E211" t="s">
+        <v>53</v>
+      </c>
+      <c r="G211" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I211" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>120</v>
+      </c>
+      <c r="B212" t="s">
+        <v>66</v>
+      </c>
+      <c r="C212" t="s">
+        <v>89</v>
+      </c>
+      <c r="D212" t="s">
+        <v>53</v>
+      </c>
+      <c r="E212" t="s">
+        <v>53</v>
+      </c>
+      <c r="G212" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I212" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>121</v>
+      </c>
+      <c r="B213" t="s">
+        <v>66</v>
+      </c>
+      <c r="C213" t="s">
+        <v>80</v>
+      </c>
+      <c r="D213" t="s">
+        <v>53</v>
+      </c>
+      <c r="E213" t="s">
+        <v>53</v>
+      </c>
+      <c r="G213" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I213" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>122</v>
+      </c>
+      <c r="B214" t="s">
+        <v>66</v>
+      </c>
+      <c r="C214" t="s">
+        <v>80</v>
+      </c>
+      <c r="D214" t="s">
+        <v>53</v>
+      </c>
+      <c r="E214" t="s">
+        <v>53</v>
+      </c>
+      <c r="G214" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I214" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>123</v>
+      </c>
+      <c r="B215" t="s">
+        <v>66</v>
+      </c>
+      <c r="C215" t="s">
+        <v>80</v>
+      </c>
+      <c r="D215" t="s">
+        <v>53</v>
+      </c>
+      <c r="E215" t="s">
+        <v>53</v>
+      </c>
+      <c r="G215" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I215" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>124</v>
+      </c>
+      <c r="B216" t="s">
+        <v>66</v>
+      </c>
+      <c r="C216" t="s">
+        <v>80</v>
+      </c>
+      <c r="D216" t="s">
+        <v>53</v>
+      </c>
+      <c r="E216" t="s">
+        <v>53</v>
+      </c>
+      <c r="G216" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I216" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>125</v>
+      </c>
+      <c r="B217" t="s">
+        <v>66</v>
+      </c>
+      <c r="C217" t="s">
+        <v>80</v>
+      </c>
+      <c r="D217" t="s">
+        <v>53</v>
+      </c>
+      <c r="E217" t="s">
+        <v>53</v>
+      </c>
+      <c r="G217" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I217" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>126</v>
+      </c>
+      <c r="B218" t="s">
+        <v>66</v>
+      </c>
+      <c r="C218" t="s">
+        <v>80</v>
+      </c>
+      <c r="D218" t="s">
+        <v>53</v>
+      </c>
+      <c r="E218" t="s">
+        <v>53</v>
+      </c>
+      <c r="G218" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I218" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>127</v>
+      </c>
+      <c r="B219" t="s">
+        <v>66</v>
+      </c>
+      <c r="C219" t="s">
+        <v>80</v>
+      </c>
+      <c r="D219" t="s">
+        <v>53</v>
+      </c>
+      <c r="E219" t="s">
+        <v>53</v>
+      </c>
+      <c r="G219" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I219" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>128</v>
+      </c>
+      <c r="B220" t="s">
+        <v>66</v>
+      </c>
+      <c r="C220" t="s">
+        <v>80</v>
+      </c>
+      <c r="D220" t="s">
+        <v>53</v>
+      </c>
+      <c r="E220" t="s">
+        <v>53</v>
+      </c>
+      <c r="G220" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I220" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>129</v>
+      </c>
+      <c r="B221" t="s">
+        <v>66</v>
+      </c>
+      <c r="C221" t="s">
+        <v>80</v>
+      </c>
+      <c r="D221" t="s">
+        <v>53</v>
+      </c>
+      <c r="E221" t="s">
+        <v>53</v>
+      </c>
+      <c r="G221" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I221" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>130</v>
+      </c>
+      <c r="B222" t="s">
+        <v>66</v>
+      </c>
+      <c r="C222" t="s">
+        <v>80</v>
+      </c>
+      <c r="D222" t="s">
+        <v>53</v>
+      </c>
+      <c r="E222" t="s">
+        <v>53</v>
+      </c>
+      <c r="G222" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I222" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>131</v>
+      </c>
+      <c r="B223" t="s">
+        <v>66</v>
+      </c>
+      <c r="C223" t="s">
+        <v>86</v>
+      </c>
+      <c r="D223" t="s">
+        <v>53</v>
+      </c>
+      <c r="E223" t="s">
+        <v>53</v>
+      </c>
+      <c r="G223" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I223" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>132</v>
+      </c>
+      <c r="B224" t="s">
+        <v>66</v>
+      </c>
+      <c r="C224" t="s">
+        <v>86</v>
+      </c>
+      <c r="D224" t="s">
+        <v>53</v>
+      </c>
+      <c r="E224" t="s">
+        <v>53</v>
+      </c>
+      <c r="G224" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I224" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>133</v>
+      </c>
+      <c r="B225" t="s">
+        <v>66</v>
+      </c>
+      <c r="C225" t="s">
+        <v>86</v>
+      </c>
+      <c r="D225" t="s">
+        <v>53</v>
+      </c>
+      <c r="E225" t="s">
+        <v>53</v>
+      </c>
+      <c r="G225" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I225" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>134</v>
+      </c>
+      <c r="B226" t="s">
+        <v>66</v>
+      </c>
+      <c r="C226" t="s">
+        <v>86</v>
+      </c>
+      <c r="D226" t="s">
+        <v>53</v>
+      </c>
+      <c r="E226" t="s">
+        <v>53</v>
+      </c>
+      <c r="G226" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I226" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>135</v>
+      </c>
+      <c r="B227" t="s">
+        <v>66</v>
+      </c>
+      <c r="C227" t="s">
+        <v>86</v>
+      </c>
+      <c r="D227" t="s">
+        <v>53</v>
+      </c>
+      <c r="E227" t="s">
+        <v>53</v>
+      </c>
+      <c r="G227" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I227" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>136</v>
+      </c>
+      <c r="B228" t="s">
+        <v>66</v>
+      </c>
+      <c r="C228" t="s">
+        <v>86</v>
+      </c>
+      <c r="D228" t="s">
+        <v>53</v>
+      </c>
+      <c r="E228" t="s">
+        <v>53</v>
+      </c>
+      <c r="G228" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I228" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>137</v>
+      </c>
+      <c r="B229" t="s">
+        <v>66</v>
+      </c>
+      <c r="C229" t="s">
+        <v>86</v>
+      </c>
+      <c r="D229" t="s">
+        <v>53</v>
+      </c>
+      <c r="E229" t="s">
+        <v>53</v>
+      </c>
+      <c r="G229" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I229" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>138</v>
+      </c>
+      <c r="B230" t="s">
+        <v>66</v>
+      </c>
+      <c r="C230" t="s">
+        <v>86</v>
+      </c>
+      <c r="D230" t="s">
+        <v>53</v>
+      </c>
+      <c r="E230" t="s">
+        <v>53</v>
+      </c>
+      <c r="G230" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I230" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>139</v>
+      </c>
+      <c r="B231" t="s">
+        <v>66</v>
+      </c>
+      <c r="C231" t="s">
+        <v>86</v>
+      </c>
+      <c r="D231" t="s">
+        <v>53</v>
+      </c>
+      <c r="E231" t="s">
+        <v>53</v>
+      </c>
+      <c r="G231" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I231" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>140</v>
+      </c>
+      <c r="B232" t="s">
+        <v>66</v>
+      </c>
+      <c r="C232" t="s">
+        <v>86</v>
+      </c>
+      <c r="D232" t="s">
+        <v>53</v>
+      </c>
+      <c r="E232" t="s">
+        <v>53</v>
+      </c>
+      <c r="G232" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I232" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>141</v>
+      </c>
+      <c r="B233" t="s">
+        <v>66</v>
+      </c>
+      <c r="C233" t="s">
+        <v>83</v>
+      </c>
+      <c r="D233" t="s">
+        <v>53</v>
+      </c>
+      <c r="E233" t="s">
+        <v>53</v>
+      </c>
+      <c r="G233" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I233" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>142</v>
+      </c>
+      <c r="B234" t="s">
+        <v>66</v>
+      </c>
+      <c r="C234" t="s">
+        <v>83</v>
+      </c>
+      <c r="D234" t="s">
+        <v>53</v>
+      </c>
+      <c r="E234" t="s">
+        <v>53</v>
+      </c>
+      <c r="G234" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I234" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>143</v>
+      </c>
+      <c r="B235" t="s">
+        <v>66</v>
+      </c>
+      <c r="C235" t="s">
+        <v>83</v>
+      </c>
+      <c r="D235" t="s">
+        <v>53</v>
+      </c>
+      <c r="E235" t="s">
+        <v>53</v>
+      </c>
+      <c r="G235" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I235" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>144</v>
+      </c>
+      <c r="B236" t="s">
+        <v>66</v>
+      </c>
+      <c r="C236" t="s">
+        <v>83</v>
+      </c>
+      <c r="D236" t="s">
+        <v>53</v>
+      </c>
+      <c r="E236" t="s">
+        <v>53</v>
+      </c>
+      <c r="G236" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I236" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>145</v>
+      </c>
+      <c r="B237" t="s">
+        <v>66</v>
+      </c>
+      <c r="C237" t="s">
+        <v>83</v>
+      </c>
+      <c r="D237" t="s">
+        <v>53</v>
+      </c>
+      <c r="E237" t="s">
+        <v>53</v>
+      </c>
+      <c r="G237" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I237" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>146</v>
+      </c>
+      <c r="B238" t="s">
+        <v>66</v>
+      </c>
+      <c r="C238" t="s">
+        <v>83</v>
+      </c>
+      <c r="D238" t="s">
+        <v>53</v>
+      </c>
+      <c r="E238" t="s">
+        <v>53</v>
+      </c>
+      <c r="G238" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I238" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>147</v>
+      </c>
+      <c r="B239" t="s">
+        <v>66</v>
+      </c>
+      <c r="C239" t="s">
+        <v>83</v>
+      </c>
+      <c r="D239" t="s">
+        <v>53</v>
+      </c>
+      <c r="E239" t="s">
+        <v>53</v>
+      </c>
+      <c r="G239" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I239" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>148</v>
+      </c>
+      <c r="B240" t="s">
+        <v>66</v>
+      </c>
+      <c r="C240" t="s">
+        <v>83</v>
+      </c>
+      <c r="D240" t="s">
+        <v>53</v>
+      </c>
+      <c r="E240" t="s">
+        <v>53</v>
+      </c>
+      <c r="G240" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I240" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>149</v>
+      </c>
+      <c r="B241" t="s">
+        <v>66</v>
+      </c>
+      <c r="C241" t="s">
+        <v>83</v>
+      </c>
+      <c r="D241" t="s">
+        <v>53</v>
+      </c>
+      <c r="E241" t="s">
+        <v>53</v>
+      </c>
+      <c r="G241" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I241" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>150</v>
+      </c>
+      <c r="B242" t="s">
+        <v>66</v>
+      </c>
+      <c r="C242" t="s">
+        <v>83</v>
+      </c>
+      <c r="D242" t="s">
+        <v>53</v>
+      </c>
+      <c r="E242" t="s">
+        <v>53</v>
+      </c>
+      <c r="G242" s="6">
+        <v>45402</v>
+      </c>
+      <c r="I242" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B202">
-    <cfRule type="containsText" dxfId="25" priority="32" operator="containsText" text=".pdf">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B242">
+    <cfRule type="containsText" dxfId="25" priority="80" operator="containsText" text=".pdf">
       <formula>NOT(ISERROR(SEARCH(".pdf", B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="31" operator="containsText" text="ftp">
+    <cfRule type="containsText" dxfId="24" priority="76" operator="containsText" text="www">
+      <formula>NOT(ISERROR(SEARCH("www", B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="77" operator="containsText" text="https">
+      <formula>NOT(ISERROR(SEARCH("https", B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="78" operator="containsText" text="http">
+      <formula>NOT(ISERROR(SEARCH("http", B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="79" operator="containsText" text="ftp">
       <formula>NOT(ISERROR(SEARCH("ftp", B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="30" operator="containsText" text="http">
-      <formula>NOT(ISERROR(SEARCH("http", B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="https">
-      <formula>NOT(ISERROR(SEARCH("https", B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="28" operator="containsText" text="www">
-      <formula>NOT(ISERROR(SEARCH("www", B2)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E202">
-    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text=".jpg">
-      <formula>NOT(ISERROR(SEARCH(".jpg", D2)))</formula>
+  <conditionalFormatting sqref="D2:E242">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="www">
+      <formula>NOT(ISERROR(SEARCH("www", D2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="https">
       <formula>NOT(ISERROR(SEARCH("https", D2)))</formula>
@@ -12699,59 +13698,59 @@
     <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text=".png">
       <formula>NOT(ISERROR(SEARCH(".png", D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="www">
-      <formula>NOT(ISERROR(SEARCH("www", D2)))</formula>
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text=".jpg">
+      <formula>NOT(ISERROR(SEARCH(".jpg", D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G202">
-    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text=".zip">
+  <conditionalFormatting sqref="G2:G242">
+    <cfRule type="containsText" dxfId="14" priority="56" operator="containsText" text="https">
+      <formula>NOT(ISERROR(SEARCH("https", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="55" operator="containsText" text="www">
+      <formula>NOT(ISERROR(SEARCH("www", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="57" operator="containsText" text="http">
+      <formula>NOT(ISERROR(SEARCH("http", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="58" operator="containsText" text="ftp">
+      <formula>NOT(ISERROR(SEARCH("ftp", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="59" operator="containsText" text=".">
+      <formula>NOT(ISERROR(SEARCH(".", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="60" operator="containsText" text=".zip">
       <formula>NOT(ISERROR(SEARCH(".zip", G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text=".yaml">
+    <cfRule type="containsText" dxfId="8" priority="61" operator="containsText" text=".yaml">
       <formula>NOT(ISERROR(SEARCH(".yaml", G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text=".">
-      <formula>NOT(ISERROR(SEARCH(".", G2)))</formula>
+    <cfRule type="containsText" dxfId="7" priority="62" operator="containsText" text=".json">
+      <formula>NOT(ISERROR(SEARCH(".json", G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text=".qs">
+    <cfRule type="containsText" dxfId="6" priority="63" operator="containsText" text=".qs">
       <formula>NOT(ISERROR(SEARCH(".qs", G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text=".rds">
+    <cfRule type="containsText" dxfId="5" priority="64" operator="containsText" text=".rds">
       <formula>NOT(ISERROR(SEARCH(".rds", G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text=".jdx">
+    <cfRule type="containsText" dxfId="4" priority="66" operator="containsText" text=".spc">
+      <formula>NOT(ISERROR(SEARCH(".spc", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="67" operator="containsText" text=".spa">
+      <formula>NOT(ISERROR(SEARCH(".spa", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="68" operator="containsText" text=".asp">
+      <formula>NOT(ISERROR(SEARCH(".asp", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="69" operator="containsText" text=".csv">
+      <formula>NOT(ISERROR(SEARCH(".csv", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="65" operator="containsText" text=".jdx">
       <formula>NOT(ISERROR(SEARCH(".jdx", G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="18" operator="containsText" text=".spc">
-      <formula>NOT(ISERROR(SEARCH(".spc", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text=".spa">
-      <formula>NOT(ISERROR(SEARCH(".spa", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="20" operator="containsText" text=".asp">
-      <formula>NOT(ISERROR(SEARCH(".asp", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="21" operator="containsText" text=".csv">
-      <formula>NOT(ISERROR(SEARCH(".csv", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="10" operator="containsText" text="ftp">
-      <formula>NOT(ISERROR(SEARCH("ftp", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="http">
-      <formula>NOT(ISERROR(SEARCH("http", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="https">
-      <formula>NOT(ISERROR(SEARCH("https", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="www">
-      <formula>NOT(ISERROR(SEARCH("www", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="14" operator="containsText" text=".json">
-      <formula>NOT(ISERROR(SEARCH(".json", G2)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:N202" xr:uid="{00000000-0002-0000-0300-000007000000}">
+  <dataValidations count="6">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:N202 L203:M203" xr:uid="{00000000-0002-0000-0300-000007000000}">
       <formula1>1</formula1>
       <formula2>10000</formula2>
     </dataValidation>
@@ -12767,29 +13766,14 @@
       <formula1>0.0001</formula1>
       <formula2>NA</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="A2:E202 G2:G202 L2:L202 I2:I202" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="textLength" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="I2:I202 G2:G242 L2:L203 A2:E242" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M203 R2:R202" xr:uid="{00000000-0002-0000-0300-00000D000000}">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-00000D000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>M2:M202</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000010000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>R2:R202</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/code/validator/www/data.xlsx
+++ b/code/validator/www/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahsherrod/Documents/MooreResearchRepository/One4All/code/validator/www/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D07302-A460-0041-AFDF-2CE6211160D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99FC580-07AA-3C46-ABB2-273ABA813009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="methodology" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="159">
   <si>
     <t>SamplingDevice</t>
   </si>
@@ -481,6 +481,24 @@
   </si>
   <si>
     <t>SampleComments</t>
+  </si>
+  <si>
+    <t>SampleApparatus</t>
+  </si>
+  <si>
+    <t>DigestionSolutionComposition</t>
+  </si>
+  <si>
+    <t>DigestionConcentration</t>
+  </si>
+  <si>
+    <t>DigestionTemperature</t>
+  </si>
+  <si>
+    <t>DensitySeparationDensity</t>
+  </si>
+  <si>
+    <t>DensitySeparationComposition</t>
   </si>
 </sst>
 </file>
@@ -1178,11 +1196,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X2" sqref="X2"/>
+      <selection pane="bottomLeft" activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1190,7 +1208,7 @@
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1263,8 +1281,23 @@
       <c r="X1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1335,7 +1368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1406,7 +1439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -1508,9 +1541,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
@@ -1522,7 +1555,7 @@
     <col min="8" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>54</v>
       </c>
@@ -1566,10 +1599,13 @@
         <v>56</v>
       </c>
       <c r="O1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
@@ -1613,7 +1649,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>70</v>
       </c>
@@ -1657,7 +1693,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>71</v>
       </c>
@@ -1701,7 +1737,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>72</v>
       </c>
@@ -1745,7 +1781,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>73</v>
       </c>
@@ -1789,7 +1825,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>74</v>
       </c>
@@ -1833,7 +1869,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>75</v>
       </c>
@@ -1877,7 +1913,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>76</v>
       </c>
@@ -1921,7 +1957,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>77</v>
       </c>
@@ -1965,7 +2001,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>78</v>
       </c>
@@ -2011,7 +2047,7 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="textLength" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="G2:G11 B2:E11 M2:N11 J2:J11" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="textLength" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="G2:G11 B2:E11 M2:O11 J2:J11" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G11" xr:uid="{00000000-0002-0000-0400-000006000000}">
@@ -13678,25 +13714,25 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B2:B242">
-    <cfRule type="containsText" dxfId="25" priority="80" operator="containsText" text=".pdf">
-      <formula>NOT(ISERROR(SEARCH(".pdf", B2)))</formula>
+    <cfRule type="containsText" dxfId="25" priority="76" operator="containsText" text="www">
+      <formula>NOT(ISERROR(SEARCH("www", B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="79" operator="containsText" text="ftp">
-      <formula>NOT(ISERROR(SEARCH("ftp", B2)))</formula>
+    <cfRule type="containsText" dxfId="24" priority="77" operator="containsText" text="https">
+      <formula>NOT(ISERROR(SEARCH("https", B2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="23" priority="78" operator="containsText" text="http">
       <formula>NOT(ISERROR(SEARCH("http", B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="77" operator="containsText" text="https">
-      <formula>NOT(ISERROR(SEARCH("https", B2)))</formula>
+    <cfRule type="containsText" dxfId="22" priority="79" operator="containsText" text="ftp">
+      <formula>NOT(ISERROR(SEARCH("ftp", B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="76" operator="containsText" text="www">
-      <formula>NOT(ISERROR(SEARCH("www", B2)))</formula>
+    <cfRule type="containsText" dxfId="21" priority="80" operator="containsText" text=".pdf">
+      <formula>NOT(ISERROR(SEARCH(".pdf", B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E242">
-    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text=".jpg">
-      <formula>NOT(ISERROR(SEARCH(".jpg", D2)))</formula>
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="www">
+      <formula>NOT(ISERROR(SEARCH("www", D2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="https">
       <formula>NOT(ISERROR(SEARCH("https", D2)))</formula>
@@ -13710,55 +13746,55 @@
     <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text=".png">
       <formula>NOT(ISERROR(SEARCH(".png", D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="www">
-      <formula>NOT(ISERROR(SEARCH("www", D2)))</formula>
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text=".jpg">
+      <formula>NOT(ISERROR(SEARCH(".jpg", D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G242">
-    <cfRule type="containsText" dxfId="14" priority="60" operator="containsText" text=".zip">
+    <cfRule type="containsText" dxfId="14" priority="55" operator="containsText" text="www">
+      <formula>NOT(ISERROR(SEARCH("www", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="56" operator="containsText" text="https">
+      <formula>NOT(ISERROR(SEARCH("https", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="57" operator="containsText" text="http">
+      <formula>NOT(ISERROR(SEARCH("http", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="58" operator="containsText" text="ftp">
+      <formula>NOT(ISERROR(SEARCH("ftp", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="59" operator="containsText" text=".">
+      <formula>NOT(ISERROR(SEARCH(".", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="60" operator="containsText" text=".zip">
       <formula>NOT(ISERROR(SEARCH(".zip", G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="61" operator="containsText" text=".yaml">
+    <cfRule type="containsText" dxfId="8" priority="61" operator="containsText" text=".yaml">
       <formula>NOT(ISERROR(SEARCH(".yaml", G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="59" operator="containsText" text=".">
-      <formula>NOT(ISERROR(SEARCH(".", G2)))</formula>
+    <cfRule type="containsText" dxfId="7" priority="62" operator="containsText" text=".json">
+      <formula>NOT(ISERROR(SEARCH(".json", G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="63" operator="containsText" text=".qs">
+    <cfRule type="containsText" dxfId="6" priority="63" operator="containsText" text=".qs">
       <formula>NOT(ISERROR(SEARCH(".qs", G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="64" operator="containsText" text=".rds">
+    <cfRule type="containsText" dxfId="5" priority="64" operator="containsText" text=".rds">
       <formula>NOT(ISERROR(SEARCH(".rds", G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="65" operator="containsText" text=".jdx">
+    <cfRule type="containsText" dxfId="4" priority="65" operator="containsText" text=".jdx">
       <formula>NOT(ISERROR(SEARCH(".jdx", G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="66" operator="containsText" text=".spc">
+    <cfRule type="containsText" dxfId="3" priority="66" operator="containsText" text=".spc">
       <formula>NOT(ISERROR(SEARCH(".spc", G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="67" operator="containsText" text=".spa">
+    <cfRule type="containsText" dxfId="2" priority="67" operator="containsText" text=".spa">
       <formula>NOT(ISERROR(SEARCH(".spa", G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="68" operator="containsText" text=".asp">
+    <cfRule type="containsText" dxfId="1" priority="68" operator="containsText" text=".asp">
       <formula>NOT(ISERROR(SEARCH(".asp", G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="69" operator="containsText" text=".csv">
+    <cfRule type="containsText" dxfId="0" priority="69" operator="containsText" text=".csv">
       <formula>NOT(ISERROR(SEARCH(".csv", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="58" operator="containsText" text="ftp">
-      <formula>NOT(ISERROR(SEARCH("ftp", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="57" operator="containsText" text="http">
-      <formula>NOT(ISERROR(SEARCH("http", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="56" operator="containsText" text="https">
-      <formula>NOT(ISERROR(SEARCH("https", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="55" operator="containsText" text="www">
-      <formula>NOT(ISERROR(SEARCH("www", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="62" operator="containsText" text=".json">
-      <formula>NOT(ISERROR(SEARCH(".json", G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">

--- a/code/validator/www/data.xlsx
+++ b/code/validator/www/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahsherrod/Documents/MooreResearchRepository/One4All/code/validator/www/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99FC580-07AA-3C46-ABB2-273ABA813009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F0A05D-0B4B-FC4C-B23E-783EE0A81C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="methodology" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="160">
   <si>
     <t>SamplingDevice</t>
   </si>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t>DensitySeparationComposition</t>
+  </si>
+  <si>
+    <t>Sieving</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AD1" sqref="AD1"/>
     </sheetView>
@@ -1543,9 +1546,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1648,6 +1651,9 @@
       <c r="N2" t="s">
         <v>52</v>
       </c>
+      <c r="O2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1692,6 +1698,9 @@
       <c r="N3" t="s">
         <v>52</v>
       </c>
+      <c r="O3" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -1736,6 +1745,9 @@
       <c r="N4" t="s">
         <v>52</v>
       </c>
+      <c r="O4" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -1780,6 +1792,9 @@
       <c r="N5" t="s">
         <v>52</v>
       </c>
+      <c r="O5" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -1824,6 +1839,9 @@
       <c r="N6" t="s">
         <v>52</v>
       </c>
+      <c r="O6" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -1868,6 +1886,9 @@
       <c r="N7" t="s">
         <v>52</v>
       </c>
+      <c r="O7" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -1912,6 +1933,9 @@
       <c r="N8" t="s">
         <v>52</v>
       </c>
+      <c r="O8" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -1956,6 +1980,9 @@
       <c r="N9" t="s">
         <v>52</v>
       </c>
+      <c r="O9" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2000,6 +2027,9 @@
       <c r="N10" t="s">
         <v>52</v>
       </c>
+      <c r="O10" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2044,10 +2074,13 @@
       <c r="N11" t="s">
         <v>52</v>
       </c>
+      <c r="O11" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="textLength" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="G2:G11 B2:E11 M2:O11 J2:J11" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="textLength" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="G2:G11 B2:E11 J2:J11 M2:O11" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G11" xr:uid="{00000000-0002-0000-0400-000006000000}">
@@ -13714,25 +13747,25 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B2:B242">
-    <cfRule type="containsText" dxfId="25" priority="76" operator="containsText" text="www">
-      <formula>NOT(ISERROR(SEARCH("www", B2)))</formula>
+    <cfRule type="containsText" dxfId="25" priority="80" operator="containsText" text=".pdf">
+      <formula>NOT(ISERROR(SEARCH(".pdf", B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="77" operator="containsText" text="https">
-      <formula>NOT(ISERROR(SEARCH("https", B2)))</formula>
+    <cfRule type="containsText" dxfId="24" priority="79" operator="containsText" text="ftp">
+      <formula>NOT(ISERROR(SEARCH("ftp", B2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="23" priority="78" operator="containsText" text="http">
       <formula>NOT(ISERROR(SEARCH("http", B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="79" operator="containsText" text="ftp">
-      <formula>NOT(ISERROR(SEARCH("ftp", B2)))</formula>
+    <cfRule type="containsText" dxfId="22" priority="77" operator="containsText" text="https">
+      <formula>NOT(ISERROR(SEARCH("https", B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="80" operator="containsText" text=".pdf">
-      <formula>NOT(ISERROR(SEARCH(".pdf", B2)))</formula>
+    <cfRule type="containsText" dxfId="21" priority="76" operator="containsText" text="www">
+      <formula>NOT(ISERROR(SEARCH("www", B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E242">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="www">
-      <formula>NOT(ISERROR(SEARCH("www", D2)))</formula>
+    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text=".jpg">
+      <formula>NOT(ISERROR(SEARCH(".jpg", D2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="https">
       <formula>NOT(ISERROR(SEARCH("https", D2)))</formula>
@@ -13746,55 +13779,55 @@
     <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text=".png">
       <formula>NOT(ISERROR(SEARCH(".png", D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text=".jpg">
-      <formula>NOT(ISERROR(SEARCH(".jpg", D2)))</formula>
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="www">
+      <formula>NOT(ISERROR(SEARCH("www", D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G242">
-    <cfRule type="containsText" dxfId="14" priority="55" operator="containsText" text="www">
+    <cfRule type="containsText" dxfId="14" priority="60" operator="containsText" text=".zip">
+      <formula>NOT(ISERROR(SEARCH(".zip", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="61" operator="containsText" text=".yaml">
+      <formula>NOT(ISERROR(SEARCH(".yaml", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="59" operator="containsText" text=".">
+      <formula>NOT(ISERROR(SEARCH(".", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="63" operator="containsText" text=".qs">
+      <formula>NOT(ISERROR(SEARCH(".qs", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="64" operator="containsText" text=".rds">
+      <formula>NOT(ISERROR(SEARCH(".rds", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="65" operator="containsText" text=".jdx">
+      <formula>NOT(ISERROR(SEARCH(".jdx", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="66" operator="containsText" text=".spc">
+      <formula>NOT(ISERROR(SEARCH(".spc", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="67" operator="containsText" text=".spa">
+      <formula>NOT(ISERROR(SEARCH(".spa", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="68" operator="containsText" text=".asp">
+      <formula>NOT(ISERROR(SEARCH(".asp", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="69" operator="containsText" text=".csv">
+      <formula>NOT(ISERROR(SEARCH(".csv", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="58" operator="containsText" text="ftp">
+      <formula>NOT(ISERROR(SEARCH("ftp", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="57" operator="containsText" text="http">
+      <formula>NOT(ISERROR(SEARCH("http", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="56" operator="containsText" text="https">
+      <formula>NOT(ISERROR(SEARCH("https", G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="55" operator="containsText" text="www">
       <formula>NOT(ISERROR(SEARCH("www", G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="56" operator="containsText" text="https">
-      <formula>NOT(ISERROR(SEARCH("https", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="57" operator="containsText" text="http">
-      <formula>NOT(ISERROR(SEARCH("http", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="58" operator="containsText" text="ftp">
-      <formula>NOT(ISERROR(SEARCH("ftp", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="59" operator="containsText" text=".">
-      <formula>NOT(ISERROR(SEARCH(".", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="60" operator="containsText" text=".zip">
-      <formula>NOT(ISERROR(SEARCH(".zip", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="61" operator="containsText" text=".yaml">
-      <formula>NOT(ISERROR(SEARCH(".yaml", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="62" operator="containsText" text=".json">
+    <cfRule type="containsText" dxfId="0" priority="62" operator="containsText" text=".json">
       <formula>NOT(ISERROR(SEARCH(".json", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="63" operator="containsText" text=".qs">
-      <formula>NOT(ISERROR(SEARCH(".qs", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="64" operator="containsText" text=".rds">
-      <formula>NOT(ISERROR(SEARCH(".rds", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="65" operator="containsText" text=".jdx">
-      <formula>NOT(ISERROR(SEARCH(".jdx", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="66" operator="containsText" text=".spc">
-      <formula>NOT(ISERROR(SEARCH(".spc", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="67" operator="containsText" text=".spa">
-      <formula>NOT(ISERROR(SEARCH(".spa", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="68" operator="containsText" text=".asp">
-      <formula>NOT(ISERROR(SEARCH(".asp", G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="69" operator="containsText" text=".csv">
-      <formula>NOT(ISERROR(SEARCH(".csv", G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
